--- a/Test Open Xml/testdata/testcreate.xlsx
+++ b/Test Open Xml/testdata/testcreate.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rdd05cb21a9694e54"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet" sheetId="1" r:id="Rb1bcdbc233ea4ce4"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Test Open Xml/testdata/testcreate.xlsx
+++ b/Test Open Xml/testdata/testcreate.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet" sheetId="1" r:id="Rb1bcdbc233ea4ce4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet" sheetId="1" r:id="R446bd01cd8fb415f"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Test Open Xml/testdata/testcreate.xlsx
+++ b/Test Open Xml/testdata/testcreate.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet" sheetId="1" r:id="R446bd01cd8fb415f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet" sheetId="1" r:id="R7ff13aec4e944834"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Test Open Xml/testdata/testcreate.xlsx
+++ b/Test Open Xml/testdata/testcreate.xlsx
@@ -2,9 +2,31 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet" sheetId="1" r:id="R7ff13aec4e944834"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet" sheetId="1" r:id="R452a82da93b64cce"/>
   </x:sheets>
 </x:workbook>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:fonts count="1">
+    <x:font/>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border/>
+  </x:borders>
+  <x:cellXfs count="1">
+    <x:xf/>
+  </x:cellXfs>
+</x:styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Test Open Xml/testdata/testcreate.xlsx
+++ b/Test Open Xml/testdata/testcreate.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet" sheetId="1" r:id="R452a82da93b64cce"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet" sheetId="1" r:id="Rbfe95208784b43df"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -23,9 +23,15 @@
   <x:borders count="1">
     <x:border/>
   </x:borders>
+  <x:cellStyleXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </x:cellStyleXfs>
   <x:cellXfs count="1">
     <x:xf/>
   </x:cellXfs>
+  <x:cellStyles>
+    <x:cellStyle name="Standard" xfId="0"/>
+  </x:cellStyles>
 </x:styleSheet>
 </file>
 

--- a/Test Open Xml/testdata/testcreate.xlsx
+++ b/Test Open Xml/testdata/testcreate.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet" sheetId="1" r:id="Rbfe95208784b43df"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet" sheetId="1" r:id="R12fd965bc66941bd"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Test Open Xml/testdata/testcreate.xlsx
+++ b/Test Open Xml/testdata/testcreate.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet" sheetId="1" r:id="R12fd965bc66941bd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet" sheetId="1" r:id="R46c89f03ac7d4253"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Test Open Xml/testdata/testcreate.xlsx
+++ b/Test Open Xml/testdata/testcreate.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet" sheetId="1" r:id="R46c89f03ac7d4253"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet" sheetId="1" r:id="R7209a318d3bd496f"/>
   </x:sheets>
 </x:workbook>
 </file>
